--- a/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-crc-021016.xlsx
+++ b/source/excel/2016-olympic-qualifiers-concacaf/2016-olympic-qualifiers-concacaf-usa-crc-021016.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/wosostats/source/excel/2016-olympic-qualifiers-concacaf/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
